--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="82">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,75 +49,81 @@
     <t>ripped</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>guess</t>
   </si>
   <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>tried</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
@@ -130,115 +136,115 @@
     <t>bit</t>
   </si>
   <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
-    <t>worked</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>price</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>work</t>
+    <t>product</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>box</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pieces</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
+    <t>one</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
+    <t>amazing</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>classic</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>great</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
-  </si>
-  <si>
-    <t>best</t>
   </si>
   <si>
     <t>friends</t>
@@ -611,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +625,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +686,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -722,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -730,13 +736,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +754,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -801,16 +807,16 @@
         <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -830,13 +836,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.796875</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -848,19 +854,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6">
+        <v>0.7096774193548387</v>
+      </c>
+      <c r="L6">
         <v>66</v>
       </c>
-      <c r="K6">
-        <v>0.5849056603773585</v>
-      </c>
-      <c r="L6">
-        <v>31</v>
-      </c>
       <c r="M6">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +886,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7634408602150538</v>
+        <v>0.7281553398058253</v>
       </c>
       <c r="C7">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7">
-        <v>0.484375</v>
+        <v>0.578125</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +936,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7524271844660194</v>
+        <v>0.7258064516129032</v>
       </c>
       <c r="C8">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D8">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,16 +957,16 @@
         <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.5283018867924528</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +986,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7464788732394366</v>
+        <v>0.703125</v>
       </c>
       <c r="C9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D9">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1004,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K9">
-        <v>0.3639344262295082</v>
+        <v>0.3631147540983606</v>
       </c>
       <c r="L9">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="M9">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1036,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7090909090909091</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D10">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.3623188405797101</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>470</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1086,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6891891891891891</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C11">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="D11">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11">
-        <v>0.2883817427385892</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L11">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="M11">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>343</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1136,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.631578947368421</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1154,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12">
-        <v>0.2409638554216867</v>
+        <v>0.3070539419087137</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>148</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>126</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1186,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6285714285714286</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K13">
-        <v>0.2110091743119266</v>
+        <v>0.2416666666666667</v>
       </c>
       <c r="L13">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>258</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1230,13 +1236,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1248,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K14">
-        <v>0.2083333333333333</v>
+        <v>0.2409638554216867</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1286,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6041666666666666</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K15">
-        <v>0.1746031746031746</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L15">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>156</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1336,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5714285714285714</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="C16">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D16">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1354,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K16">
-        <v>0.108433734939759</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>222</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5101449275362319</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C17">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1404,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K17">
-        <v>0.09640666082383874</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="L17">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1031</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1436,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5060240963855421</v>
+        <v>0.5159420289855072</v>
       </c>
       <c r="C18">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D18">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,31 +1454,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K18">
-        <v>0.05584415584415584</v>
+        <v>0.1007887817703769</v>
       </c>
       <c r="L18">
-        <v>86</v>
+        <v>115</v>
       </c>
       <c r="M18">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1454</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,13 +1486,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4814814814814815</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C19">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D19">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1498,7 +1504,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>48</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19">
+        <v>0.04802076573653472</v>
+      </c>
+      <c r="L19">
+        <v>74</v>
+      </c>
+      <c r="M19">
+        <v>74</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1467</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1506,13 +1536,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4566929133858268</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C20">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1524,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>69</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1532,13 +1562,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4421052631578947</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C21">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1550,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1558,13 +1588,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1576,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1584,13 +1614,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4259259259259259</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1602,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1610,13 +1640,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.40625</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1628,7 +1658,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1636,13 +1666,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3650793650793651</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1654,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1662,13 +1692,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3370786516853932</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D26">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1680,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1688,13 +1718,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3267326732673267</v>
+        <v>0.390625</v>
       </c>
       <c r="C27">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D27">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1706,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>136</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1714,13 +1744,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3203125</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1732,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1740,13 +1770,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3080568720379147</v>
+        <v>0.359375</v>
       </c>
       <c r="C29">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1758,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>146</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1766,13 +1796,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2905982905982906</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C30">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D30">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1784,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1792,13 +1822,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.2680412371134021</v>
+        <v>0.2843601895734597</v>
       </c>
       <c r="C31">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D31">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1810,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1818,13 +1848,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2653061224489796</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1836,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1844,13 +1874,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2183544303797468</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C33">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="D33">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1862,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>247</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1870,13 +1900,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2037037037037037</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1888,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1896,13 +1926,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2028985507246377</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C35">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1914,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>220</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1922,13 +1952,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2009345794392523</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1940,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>171</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1948,13 +1978,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1949152542372881</v>
+        <v>0.1974522292993631</v>
       </c>
       <c r="C37">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D37">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1966,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>95</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2000,13 +2030,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.19</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2018,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>162</v>
+        <v>256</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2026,13 +2056,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1857142857142857</v>
+        <v>0.1869436201780415</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2044,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>114</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2052,25 +2082,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1827637444279346</v>
+        <v>0.1828571428571429</v>
       </c>
       <c r="C41">
-        <v>123</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="E41">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>550</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2078,13 +2108,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1666666666666667</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C42">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2096,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>290</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2104,13 +2134,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1541850220264317</v>
+        <v>0.1637931034482759</v>
       </c>
       <c r="C43">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2122,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>384</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2130,13 +2160,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1485714285714286</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2148,7 +2178,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2156,25 +2186,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1308900523560209</v>
+        <v>0.1567328918322296</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D45">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>166</v>
+        <v>382</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2182,25 +2212,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1219512195121951</v>
+        <v>0.155</v>
       </c>
       <c r="C46">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D46">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>216</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2208,25 +2238,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1015037593984962</v>
+        <v>0.131578947368421</v>
       </c>
       <c r="C47">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2234,25 +2264,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0958904109589041</v>
+        <v>0.1223404255319149</v>
       </c>
       <c r="C48">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>330</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2260,13 +2290,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.09014084507042254</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C49">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D49">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2278,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>323</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2286,25 +2316,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08745874587458746</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="D50">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E50">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F50">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>553</v>
+        <v>219</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2312,25 +2342,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.07278481012658228</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C51">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D51">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E51">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2338,13 +2368,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.066815144766147</v>
+        <v>0.0779510022271715</v>
       </c>
       <c r="C52">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D52">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2356,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2364,25 +2394,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.06279069767441861</v>
+        <v>0.07605633802816901</v>
       </c>
       <c r="C53">
         <v>27</v>
       </c>
       <c r="D53">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E53">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>403</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2390,25 +2420,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.06088992974238876</v>
+        <v>0.07236842105263158</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E54">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>401</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2416,25 +2446,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.04434250764525994</v>
+        <v>0.07209302325581396</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D55">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E55">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="F55">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>625</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2442,25 +2472,51 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.03792667509481669</v>
+        <v>0.04556962025316456</v>
       </c>
       <c r="C56">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="F56">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>761</v>
+        <v>754</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
+        <v>0.03369065849923431</v>
+      </c>
+      <c r="C57">
+        <v>22</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>0.08</v>
+      </c>
+      <c r="F57">
+        <v>0.92</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
